--- a/DB Datos.xlsx
+++ b/DB Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefer\Documents\MATLAB\MonedaProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FDE0A-0DA6-4C6F-890D-57F58B317F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A853E2-6729-4AE1-AFBE-3A1F201C15B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{8B459BD6-A0E6-4669-B6A2-9CFA8FE989F0}"/>
+    <workbookView xWindow="29910" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{8B459BD6-A0E6-4669-B6A2-9CFA8FE989F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
